--- a/completion_assistant/completion_annotations_format/pre_training.xlsx
+++ b/completion_assistant/completion_annotations_format/pre_training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Desktop/Eulith_AI_Agent/completion_assistant/completion_annotations_format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F391C00-DC38-A34D-8A08-478FB74620DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B4923-4459-144B-B472-DDA9D3B8D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{E410D307-214E-5E46-AD09-D6B1285838D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="1383">
   <si>
     <t>What is the purpose of the EulithWeb3() function?</t>
   </si>
@@ -3573,6 +3573,618 @@
   </si>
   <si>
     <t>The Step 5,6,7, and 9 are optional (they are used only if the transaction is atomic).\nIn the case the transaction is not atomic, then you don't need a toolkit and use only steps 1,2,3,4 and 8.\n\nIn a nutshell:\n- if the transaction is atomic all steps from 1 to 9 must be used\n- if the transaction is non-atomic, only steps 1,2,3,4 and 8 are required.</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a coded implementation of the atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Please provide an example of how to code the foundation of an atomic transaction protocol.</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet illustrating the basic structure of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me the coding basis for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What does the foundational code of an atomic transaction protocol look like?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code showcasing the fundamental elements of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the core components of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Could you share a basic code template for building an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What is the underlying structure of an atomic transaction protocol in code form?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the skeleton code for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I implement the foundation of an atomic transaction protocol using code?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic coding framework of an atomic transaction protocol entail?</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet that represents the fundamental structure of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the building blocks of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me an example of how to structure the code for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What is the code foundation required to create an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework for developing an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the base structure of an atomic transaction protocol in code?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a sample implementation of the atomic transaction protocol using code?</t>
+  </si>
+  <si>
+    <t>What are the essential coding elements of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a code template for the core components of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the fundamental aspects of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code architecture underlying an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding groundwork needed to establish an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you showcase a code snippet that represents the foundational structure of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I create the coding basis for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of how to code the core functionality of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What does the base code for an atomic transaction protocol typically include?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the coding framework required for implementing an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I structure the code for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you share a code template illustrating the fundamental elements of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What are the coding components that form the base of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base that serves as the foundation for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential building blocks of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code snippet representing the core structure of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What is the basic coding structure for implementing an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework that outlines the key aspects of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the base functionality of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the code foundation required for developing an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic code structure of an atomic transaction protocol consist of?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code base needed to establish an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential components of an atomic transaction protocol using a framework?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code base that forms the backbone of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What are the core coding elements that make up the base of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate how to code the fundamental aspects of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the foundational code for an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code template for developing the core functionality of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding structure that underlies an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code snippet that represents the foundational structure of an atomic transaction protocol?</t>
+  </si>
+  <si>
+    <t>#1. Import Libraries\nimport os\nimport sys\n\nfrom eulith_web3.eulith_web3 import *\nfrom eulith_web3.signing import construct_signing_middleware, LocalSigner\n\nsys.path.insert(0, os.getcwd())\nfrom utils.settings import PRIVATE_KEY, EULITH_REFRESH_TOKEN\nfrom utils.banner import print_banner\n\n#2. Fill constructor\nif __name__ == '__main__':\n    print_banner()\n\n    wallet = LocalSigner(\&lt;PRIVATE_KEY&gt;\")\n    ew3 = EulithWeb3(\"https://eth-main.eulithrpc.com/v0\", \"&lt;EULITH_REFRESH_TOKEN&gt;\", construct_signing_middleware(wallet))\n\n#3. Define transaction's tokens and amount\n\n    weth = ew3.eulith_get_erc_token(TokenSymbol.WETH)\n    t1_send_amount = 0.0001\n    t2_send_amount = 0.0001\n    amount = t1_send_amount + t2_send_amount\n    t1_wallet_address = '0xFc11E697f23E5CbBeD3c59aC249955da57e57672'\n    t2_wallet_address = '0x47256A41027e94d1141Dd06f05DcB3ddE0421551'\n\n#4. Check wallet's funds' availability\n\n    if ew3.eth.get_balance(wallet.address) / 1e18 &lt; amount + 0.003:\n        print(f'insufficient balance, deposit at least {amount + 0.002} ETH to perform operation')\n        exit(1)\n\n#5. Call and check funds availability in Eulith toolkit\n    toolkit_address = ew3.v0.ensure_toolkit_contract(wallet.address)\n\n    if weth.balance_of_float(toolkit_address) &lt; amount:\n        deposit_tx = weth.deposit_eth(amount, {'from': wallet.address, 'gas': 100000})\n        deposit_hash = ew3.eth.send_transaction(deposit_tx)\n        print(f'Converting ETH to WETH: {deposit_hash.hex()}')\n        ew3.eth.wait_for_transaction_receipt(deposit_hash)\n\n        transfer_to_toolkit_contract = weth.transfer_float(\n            toolkit_address, amount, {'from': wallet.address, 'gas': 100000})\n        transfer_hash = ew3.eth.send_transaction(transfer_to_toolkit_contract)\n        print(f'Sending enough WETH to the toolkit contract to cover the swap: {transfer_hash.hex()}')\n        ew3.eth.wait_for_transaction_receipt(transfer_hash)\n    \n#6. Open the atomic bundle\n    ew3.v0.start_atomic_transaction(wallet.address)\n\n    try:\n        ew3.eth.send_transaction({'from': wallet.address,\n                                  'to': t1_wallet_address,\n                                  'value': hex(int(t1_send_amount * 1e18))})\n        ew3.eth.send_transaction({'from': wallet.address,\n                                  'to': t2_wallet_address,\n                                  'value': hex(int(t2_send_amount * 1e18))})\n    except Exception as e:\n        print(\"Error: Failed to execute transactions:\", str(e))\n        exit(1)\n#7. Close bundle\n    try:\n        atomic_tx = ew3.v0.commit_atomic_transaction()\n    except Exception as e:\n        print(\"Error: Failed to commit atomic transaction:\", str(e))\n        exit(1)\n\n\n#8. Perform transaction\n    try:\n        tx_hash = ew3.eth.send_transaction(atomic_tx)\n        receipt = ew3.eth.wait_for_transaction_receipt(tx_hash)\n        print(f\"\\nTransaction hash: {receipt['transactionHash'].hex()}\")\n    except web3.exceptions.TimeExhausted:\n        print(\"Error: Transaction not found in the chain after 120 seconds. Try the atomic transaction again.\")\n        exit(1)\n\n#9. Empty remaining balance\n    withdraw_weth_from_toolkit_tx = weth.transfer_from_float(\n        toolkit_address, wallet.address, amount, {'from': wallet.address, 'gas': 100000})\n    tx_hash = ew3.eth.send_transaction(withdraw_weth_from_toolkit_tx)\n    print(f'Withdraw tx: {tx_hash.hex()}')"</t>
+  </si>
+  <si>
+    <t>#1. Import Libraries\nimport os\nimport sys\n\nfrom eulith_web3.erc20 import TokenSymbol\nfrom eulith_web3.eulith_web3 import EulithWeb3\nfrom eulith_web3.signing import LocalSigner, construct_signing_middleware\n\nsys.path.insert(0, os.getcwd())\nfrom utils.banner import print_banner\nfrom utils.settings import *\n\n#2. Fill the constructor\nif __name__ == '__main__':\n    print_banner()\n\n    wallet = LocalSigner(\&lt;PRIVATE_KEY&gt;\")\n    ew3 = EulithWeb3(\"https://eth-main.eulithrpc.com/v0\", \"&lt;EULITH_REFRESH_TOKEN&gt;\", construct_signing_middleware(wallet))\n\n#4. Check wallet's funds availability \n    if ew3.eth.get_balance(wallet.address) / 10 ** 18 &lt; 0.008:\n        print(f'Insufficient wallet balance to run the example. '\n              f'Please send at least 0.01 ETH to {wallet.address} to continue')\n        exit(1)\n\n#3. Define transaction and its amounts\n    weth = ew3.v0.get_erc_token(TokenSymbol.WETH)\n    amount = 0.001\n\n#5. Call and check funds availability in Eulith toolkit\n    toolkit_address = ew3.v0.ensure_toolkit_contract(wallet.address)\n\n    if weth.balance_of_float(toolkit_address) &lt; amount:\n        print('The toolkit contract doesnt have sufficient WETH to demonstrate the withdraw. '\n              f'Please send 0.001 WETH to {toolkit_address} to continue')\n        exit(1)\n\n#6. Open and append transactions to the atomic bundle    \n    ew3.v0.start_atomic_transaction(wallet.address)\n    approval_tx = weth.approve_float(wallet.address, amount)\n\n    ew3.eth.send_transaction(approval_tx)\n\n#7. Close bundle\n    atomic_tx = ew3.v0.commit_atomic_transaction()\n\n#8. Perform transaction\n    tx_hash = ew3.eth.send_transaction(atomic_tx)\n    print(f'Approve wallet from the toolkit contract tx: {tx_hash.hex()}')\n    ew3.eth.wait_for_transaction_receipt(tx_hash)\n\n#9. Empty remaining balance\n    withdraw_weth_from_toolkit_tx = weth.transfer_from_float(\n        toolkit_address, wallet.address, amount, {'from': wallet.address, 'gas': 100000})\n    tx_hash = ew3.eth.send_transaction(withdraw_weth_from_toolkit_tx)\n    print(f'Withdraw tx: {tx_hash.hex()}')\n"</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a coded implementation of the transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Please provide an example of how to code the foundation of a transfer from toolkit protocol.</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet illustrating the basic structure of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me the coding basis for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What does the foundational code of a transfer from toolkit protocol look like?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code showcasing the fundamental elements of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the core components of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Could you share a basic code template for building a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What is the underlying structure of a transfer from toolkit protocol in code form?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the skeleton code for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I implement the foundation of a transfer from toolkit protocol using code?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic coding framework of a transfer from toolkit protocol entail?</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet that represents the fundamental structure of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the building blocks of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me an example of how to structure the code for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What is the code foundation required to create a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework for developing a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the base structure of a transfer from toolkit protocol in code?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a sample implementation of the transfer from toolkit protocol using code?</t>
+  </si>
+  <si>
+    <t>What are the essential coding elements of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a code template for the core components of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the fundamental aspects of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code architecture underlying a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding groundwork needed to establish a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you showcase a code snippet that represents the foundational structure of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I create the coding basis for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of how to code the core functionality of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What does the base code for a transfer from toolkit protocol typically include?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the coding framework required for implementing a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I structure the code for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you share a code template illustrating the fundamental elements of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What are the coding components that form the base of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base that serves as the foundation for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential building blocks of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code snippet representing the core structure of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What is the basic coding structure for implementing a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework that outlines the key aspects of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the base functionality of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the code foundation required for developing a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic code structure of a transfer from toolkit protocol consist of?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code base needed to establish a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential components of a transfer from toolkit protocol using a framework?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code base that forms the backbone of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What are the core coding elements that make up the base of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate how to code the fundamental aspects of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the foundational code for a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code template for developing the core functionality of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding structure that underlies a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code snippet that represents the foundational structure of a transfer from toolkit protocol?</t>
+  </si>
+  <si>
+    <t>#1. Import Libraries\nimport argparse\nimport os\nimport sys\n\nfrom eulith_web3.eulith_web3 import EulithWeb3\nfrom eulith_web3.exceptions import EulithRpcException\nfrom eulith_web3.signing import LocalSigner, construct_signing_middleware\n\nsys.path.insert(0, os.getcwd())\nfrom utils.banner import print_banner\nfrom utils.settings import *\n\n#1.1 Set up the argparser\nparser = argparse.ArgumentParser(\n    prog='Test Send ETH to Wallet',\n    description='Send ETH to a test wallet of your choosing.')\n\nparser.add_argument('destination_wallet')\n\n#2. Fill the constructor\nif __name__ == '__main__':\n    print_banner()\n\n    wallet = LocalSigner(\&lt;PRIVATE_KEY&gt;\")\n    ew3 = EulithWeb3(\"https://eth-main.eulithrpc.com/v0\", \"&lt;EULITH_REFRESH_TOKEN&gt;\", construct_signing_middleware(wallet))\n\n#3. Define transaction and its amounts\n    args = parser.parse_args()\n    destination = ''\n\n    try:\n        destination = ew3.toChecksumAddress(args.destination_wallet)\n    except ValueError:\n        print(f'Failed to parse {args.destination_wallet} as a valid Ethereum address')\n        exit(1)\n\n    amount_in_eth = 0.001\n\n#4. Check wallet's funds availability\n    if ew3.eth.get_balance(wallet.address) / 10 ** 18 &lt; amount_in_eth + 0.002:  # we don't have enough ETH to complete the tx\n        print(f'You have insufficient balance to run this example. Please fund the test wallet with '\n              f'at least {amount_in_eth + 0.002} ETH')\n        exit(1)\n\n    print(f'Sending {amount_in_eth} ETH to: {destination}')\n\n#8. Perform transaction\n    try:\n        tx_hash = ew3.eth.send_transaction({\n            'from': wallet.address,\n            'to': destination,\n            'value': hex(int(amount_in_eth * 1e18))\n        })\n\n        print(f'Tx hash: {tx_hash.hex()}')\n    except EulithRpcException:\n        print('Looks like you dont have enough gas to complete this tx. Please fund the wallet a bit more.')\n"</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a coded implementation of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Please provide an example of how to code the foundation of a simple transfer protocol.</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet illustrating the basic structure of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me the coding basis for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What does the foundational code of a simple transfer protocol look like?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code showcasing the fundamental elements of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the core components of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Could you share a basic code template for building a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What is the underlying structure of a simple transfer protocol in code form?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the skeleton code for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I implement the foundation of a simple transfer protocol using code?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic coding framework of a simple transfer protocol entail?</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet that represents the fundamental structure of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the building blocks of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me an example of how to structure the code for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What is the code foundation required to create a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework for developing a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the base structure of a simple transfer protocol in code?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a sample implementation of a simple transfer protocol using code?</t>
+  </si>
+  <si>
+    <t>What are the essential coding elements of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a code template for the core components of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the fundamental aspects of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code architecture underlying a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding groundwork needed to establish a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you showcase a code snippet that represents the foundational structure of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I create the coding basis for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of how to code the core functionality of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What does the base code for a simple transfer protocol typically include?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the coding framework required for implementing a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I structure the code for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you share a code template illustrating the fundamental elements of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What are the coding components that form the base of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base that serves as the foundation for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential building blocks of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code snippet representing the core structure of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What is the basic coding structure for implementing a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework that outlines the key aspects of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the base functionality of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the code foundation required for developing a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic code structure of a simple transfer protocol consist of?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code base needed to establish a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential components of a simple transfer protocol using a framework?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code base that forms the backbone of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What are the core coding elements that make up the base of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate how to code the fundamental aspects of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the foundational code for a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code template for developing the core functionality of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding structure that underlies a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code snippet that represents the foundational structure of a simple transfer protocol?</t>
+  </si>
+  <si>
+    <t>#1. Import Libraries\nimport os\nimport sys\n\nfrom eulith_web3.eulith_web3 import *\nfrom eulith_web3.signing import construct_signing_middleware, LocalSigner\n\nsys.path.insert(0, os.getcwd())\nfrom utils.banner import print_banner\nfrom utils.settings import *\n\n#2. Fill constructor\nif __name__ == '__main__':\n    print_banner()\n\n    wallet = LocalSigner(\&lt;PRIVATE_KEY&gt;\")\n    ew3 = EulithWeb3(\"https://eth-main.eulithrpc.com/v0\", \"&lt;EULITH_REFRESH_TOKEN&gt;\", construct_signing_middleware(wallet))\n\n#3. Define transaction and its amounts\n    weth = ew3.eulith_get_erc_token(TokenSymbol.WETH)\n    usdc = ew3.eulith_get_erc_token(TokenSymbol.USDC)\n\n    amount = 0.005\n\n    swap = EulithSwapRequest(\n        sell_token=weth,\n        buy_token=usdc,\n        sell_amount=amount,\n        recipient=wallet.address,\n        route_through=EulithSwapProvider.ONE_INCH)\n\n#4. Check wallet's funds availability\n    if ew3.eth.get_balance(wallet.address) / 1e18 &lt; amount + 0.03:\n        print(f'insufficient balance, deposit at least {amount + 0.002} ETH to perform operation')\n        exit(1)\n\n#5. Call and check funds availability in Eulith toolkit\n    toolkit_address = ew3.v0.ensure_toolkit_contract(wallet.address)\n\n    if weth.balance_of_float(toolkit_address) &lt; amount:\n        deposit_tx = weth.deposit_eth(amount, {'from': wallet.address, 'gas': 100000})\n        deposit_hash = ew3.eth.send_transaction(deposit_tx)\n        print(f'Converting ETH to WETH: {deposit_hash.hex()}')\n        ew3.eth.wait_for_transaction_receipt(deposit_hash)\n\n        transfer_to_toolkit_contract = weth.transfer_float(\n            toolkit_address, amount, {'from': wallet.address, 'gas': 100000})\n        transfer_hash = ew3.eth.send_transaction(transfer_to_toolkit_contract)\n        print(f'Sending enough WETH to the toolkit contract to cover the swap: {transfer_hash.hex()}')\n        ew3.eth.wait_for_transaction_receipt(transfer_hash)\n\n#6. Open and append transactions to the atomic bundle\n    ew3.v0.start_atomic_transaction(wallet.address)\n    price, txs = ew3.v0.get_swap_quote(swap)\n\n    print(f'Swapping at price: {round(price, 5)} WETH per USDC')\n\n    ew3.v0.send_multi_transaction(txs)\n\n#7. Close bundle\n    final_tx = ew3.v0.commit_atomic_transaction()\n\n#8. Perform transaction\n    rec = ew3.eth.send_transaction(final_tx)\n\n    print(f\"\\nSwap tx hash: {rec.hex()}\")\n\n#9. Empty remaining balance\n    withdraw_weth_from_toolkit_tx = weth.transfer_from_float(\n        toolkit_address, wallet.address, amount, {'from': wallet.address, 'gas': 100000})\n    tx_hash = ew3.eth.send_transaction(withdraw_weth_from_toolkit_tx)\n    print(f'Withdraw tx: {tx_hash.hex()}')"</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a coded implementation of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Please provide an example of how to code the foundation of a swap protocol.</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet illustrating the basic structure of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me the coding basis for a swap protocol?</t>
+  </si>
+  <si>
+    <t>What does the foundational code of a swap protocol look like?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code showcasing the fundamental elements of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the core components of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Could you share a basic code template for building a swap protocol?</t>
+  </si>
+  <si>
+    <t>What is the underlying structure of a swap protocol in code form?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the skeleton code for a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I implement the foundation of a swap protocol using code?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base for a swap protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic coding framework of a swap protocol entail?</t>
+  </si>
+  <si>
+    <t>Could you share a code snippet that represents the fundamental structure of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the building blocks of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me an example of how to structure the code for a swap protocol?</t>
+  </si>
+  <si>
+    <t>What is the code foundation required to create a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework for developing a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the base structure of a swap protocol in code?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate a sample implementation of a swap protocol using code?</t>
+  </si>
+  <si>
+    <t>What are the essential coding elements of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a code template for the core components of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the fundamental aspects of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code architecture underlying a swap protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding groundwork needed to establish a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you showcase a code snippet that represents the foundational structure of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I create the coding basis for a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example of how to code the core functionality of a swap protocol?</t>
+  </si>
+  <si>
+    <t>What does the base code for a swap protocol typically include?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the coding framework required for implementing a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I structure the code for a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you share a code template illustrating the fundamental elements of a swap protocol?</t>
+  </si>
+  <si>
+    <t>What are the coding components that form the base of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code base that serves as the foundation for a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential building blocks of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code snippet representing the core structure of a swap protocol?</t>
+  </si>
+  <si>
+    <t>What is the basic coding structure for implementing a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide a coding framework that outlines the key aspects of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the base functionality of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate the code foundation required for developing a swap protocol?</t>
+  </si>
+  <si>
+    <t>What does the basic code structure of a swap protocol consist of?</t>
+  </si>
+  <si>
+    <t>Can you share an example of the code base needed to establish a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I code the essential components of a swap protocol using a framework?</t>
+  </si>
+  <si>
+    <t>Can you provide a sample code base that forms the backbone of a swap protocol?</t>
+  </si>
+  <si>
+    <t>What are the core coding elements that make up the base of a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you demonstrate how to code the fundamental aspects of a swap protocol?</t>
+  </si>
+  <si>
+    <t>How can I construct the foundational code for a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you show me a code template for developing the core functionality of a swap protocol?</t>
+  </si>
+  <si>
+    <t>What is the coding structure that underlies a swap protocol?</t>
+  </si>
+  <si>
+    <t>Can you provide an example code snippet that represents the foundational structure of a swap protocol?</t>
   </si>
 </sst>
 </file>
@@ -3931,10 +4543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5025CF3E-4743-B542-A47B-76D228B0C969}">
-  <dimension ref="A1:B1160"/>
+  <dimension ref="A1:B1360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="H1147" sqref="H1147"/>
+    <sheetView tabSelected="1" topLeftCell="A1355" workbookViewId="0">
+      <selection activeCell="E1370" sqref="E1370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13219,6 +13831,1606 @@
         <v>1178</v>
       </c>
     </row>
+    <row r="1161" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1161" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1162" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1163" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1164" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1165" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1166" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1167" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1168" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1169" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1170" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1171" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1172" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1173" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1174" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1175" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1176" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1177" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1178" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1179" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1180" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1181" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1182" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1183" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1184" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1185" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1186" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1187" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1188" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1189" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1190" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1191" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1192" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1193" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1194" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1195" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1196" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1197" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1198" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1199" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1200" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1201" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1202" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1203" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1204" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1205" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1206" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1207" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1208" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1210" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1301" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1302" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1303" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1304" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1305" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1306" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1307" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1308" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1309" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1310" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1311" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1312" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1313" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1314" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1315" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1316" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1317" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1318" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1319" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1320" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1321" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1322" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1323" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1324" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1325" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1326" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1327" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1328" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1329" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1330" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1331" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1332" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1333" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1334" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1335" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1336" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1337" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1338" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1339" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1340" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1341" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1342" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1343" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1344" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1345" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1346" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1347" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1348" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1349" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1350" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1351" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1352" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1353" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1354" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1355" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1356" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1357" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1358" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1359" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1360" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>1332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
